--- a/data/trans_bre/CoTrAQ_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R2-Provincia-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.26355071771362</v>
+        <v>-11.69071751268831</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-21.91070525621592</v>
+        <v>-21.25177269656679</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.408750007294706</v>
+        <v>-0.4203842859725453</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.490651823384365</v>
+        <v>-0.4856492469284964</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.73095137385011</v>
+        <v>13.18535019077096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.46632405583994</v>
+        <v>4.921859247932856</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.8351118036520844</v>
+        <v>0.7429450211357226</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1872142011920261</v>
+        <v>0.1479696486526752</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.522412574460929</v>
+        <v>-5.711639309497413</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.746654354150308</v>
+        <v>-8.319482578152311</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4088475773102655</v>
+        <v>-0.4182181229248226</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2857697547703613</v>
+        <v>-0.3012488014476738</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.35476002342514</v>
+        <v>10.04219526304223</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.66421569339191</v>
+        <v>13.57559962351078</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.269252033865647</v>
+        <v>1.264590254972613</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7032613522706928</v>
+        <v>0.7818745435104082</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.622229854736743</v>
+        <v>-5.47628839360099</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.18338384945198</v>
+        <v>-11.30361440424196</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.4447959195646962</v>
+        <v>-0.3830956223171659</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3868569533117456</v>
+        <v>-0.3951360239472951</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.2435924364904</v>
+        <v>15.16480278765485</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.04662784367058</v>
+        <v>12.00015284339441</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.710707586839433</v>
+        <v>1.926075675423813</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6475634675019885</v>
+        <v>0.6166258963370922</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.637724348612537</v>
+        <v>-4.344592919278573</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.855518251312235</v>
+        <v>-6.543726966152712</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.38185083045593</v>
+        <v>-0.3829742458172317</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2835410980698686</v>
+        <v>-0.3141016685542271</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.15065026220594</v>
+        <v>14.46572092100372</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.39903114594727</v>
+        <v>18.42464694093719</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.139142486407219</v>
+        <v>2.352721814052241</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.670429365975786</v>
+        <v>1.569553612419112</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6705757065252237</v>
+        <v>-0.2885019437417025</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.395177227424057</v>
+        <v>-6.180065321691882</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.05789568294358517</v>
+        <v>-0.02822227458520765</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2976956399374261</v>
+        <v>-0.353002277952569</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>33.95902791627676</v>
+        <v>32.39670209662307</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.23786823898494</v>
+        <v>21.42762373162627</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2.516263428636382</v>
+        <v>2.336549898065434</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.61084389864761</v>
+        <v>2.420670814683964</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.682531249359733</v>
+        <v>-4.996697698108788</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.326552802910832</v>
+        <v>-8.550549617610811</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6746155689332504</v>
+        <v>-0.6358109197130005</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2889431711136488</v>
+        <v>-0.2837714905571418</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.64162316183549</v>
+        <v>14.69324621993686</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.78089880693887</v>
+        <v>18.03239698957041</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.194692012253241</v>
+        <v>3.987811168529098</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9397368749314733</v>
+        <v>0.9823545986116279</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.506298604062678</v>
+        <v>-4.648726112443158</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.938700510515438</v>
+        <v>-2.245030932089052</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.2768128073766926</v>
+        <v>-0.2940665742876875</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.04598212331344721</v>
+        <v>-0.05328518788002339</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.12601796358055</v>
+        <v>10.68291173210623</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.93588376648869</v>
+        <v>13.74402395666937</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.9402386101167183</v>
+        <v>0.9125160230358836</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.3835988598482426</v>
+        <v>0.3841764160577408</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.889196494084865</v>
+        <v>-3.243980346217819</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.401150528751179</v>
+        <v>2.41046406182357</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2074302404167753</v>
+        <v>-0.2251931745064863</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2434011735007837</v>
+        <v>0.2203496678602603</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.29001591311415</v>
+        <v>8.70509297385474</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.11905832525868</v>
+        <v>13.06103067197811</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.940619968782442</v>
+        <v>0.8834979191349684</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.467294013672784</v>
+        <v>2.386898414801906</v>
       </c>
     </row>
     <row r="28">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7649707362099373</v>
+        <v>0.4998884853830282</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8650010601221878</v>
+        <v>1.009629421620248</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0.05891723059371563</v>
+        <v>0.03054166062031727</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.03220154950605392</v>
+        <v>0.03408692534787582</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.863381059121392</v>
+        <v>6.885989080337532</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.235261710151724</v>
+        <v>8.13399078489109</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.5751701632629073</v>
+        <v>0.5620560237030897</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.368546666515035</v>
+        <v>0.3599870327205021</v>
       </c>
     </row>
     <row r="31">
